--- a/Data/EC/NIT-9003671388.xlsx
+++ b/Data/EC/NIT-9003671388.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2399DE88-A283-49E8-9A5D-2ECB843ECF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A686AD69-D68C-499B-A72D-5A8C07DCF0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24A93B1B-18F2-47B4-B57C-52A13EE57F2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{55998690-7546-47A8-BA8D-B48C634D77CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,33 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73353731</t>
+  </si>
+  <si>
+    <t>EULISE MATTAS BARRIOS</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>3828458</t>
+  </si>
+  <si>
+    <t>LEIDER TOMAS LORA TOBIAS</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>45646635</t>
   </si>
   <si>
@@ -74,27 +101,60 @@
     <t>1704</t>
   </si>
   <si>
+    <t>1007323757</t>
+  </si>
+  <si>
+    <t>CARLOS ALFREDO RODRIGUEZ CERVANTES</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>1044921366</t>
+  </si>
+  <si>
+    <t>OSNAIDER JAVIER BUSTOS JARAMILLO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1044908417</t>
+  </si>
+  <si>
+    <t>HAWYN JESSID CASTRO SARMIENTO</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>1044935054</t>
   </si>
   <si>
     <t>GUSTAVO ANDRES MARTINEZ PADILLA</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2010</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>1044908417</t>
-  </si>
-  <si>
-    <t>HAWYN JESSID CASTRO SARMIENTO</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>1044912807</t>
   </si>
   <si>
@@ -104,64 +164,10 @@
     <t>2101</t>
   </si>
   <si>
-    <t>73353731</t>
-  </si>
-  <si>
-    <t>EULISE MATTAS BARRIOS</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>3828458</t>
-  </si>
-  <si>
-    <t>LEIDER TOMAS LORA TOBIAS</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1007323757</t>
-  </si>
-  <si>
-    <t>CARLOS ALFREDO RODRIGUEZ CERVANTES</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
     <t>1051824856</t>
   </si>
   <si>
     <t>CARLOS ANDRES DE ORO BUSTILLO</t>
-  </si>
-  <si>
-    <t>1044934711</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL HERRERA HUETO</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>77032059</t>
-  </si>
-  <si>
-    <t>ELVIS GREGORIO ROYS CUELLO</t>
-  </si>
-  <si>
-    <t>1143352164</t>
-  </si>
-  <si>
-    <t>LUZ ANGELA HERNANDEZ DORIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -575,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C18332D-9E7E-09E4-0F9E-7C91F14FF904}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F49CC88-76F5-64E6-0ED3-D0FB3D9095BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,8 +932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048B03F2-AB8E-41ED-9985-7A2AB71E8437}">
-  <dimension ref="B2:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC500D8-DC74-4512-A3B9-63BF7AAEE219}">
+  <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -951,7 +957,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -996,7 +1002,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1028,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>847976</v>
+        <v>597652</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1044,17 +1050,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1081,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1104,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>7933</v>
+        <v>8480</v>
       </c>
       <c r="G16" s="18">
-        <v>850000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1118,19 +1124,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>39227</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1141,19 +1147,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>39227</v>
+        <v>30284</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1164,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
-        <v>36612</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>980657</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1187,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>7268</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1210,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>30284</v>
+        <v>8480</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1233,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F22" s="18">
-        <v>29073</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1256,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>29073</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1279,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>7933</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>850000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1302,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>8480</v>
+        <v>1333</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1325,16 +1331,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
-        <v>8480</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
         <v>908526</v>
@@ -1348,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1371,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>1333</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1394,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>22666</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1417,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
-        <v>56940</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
-        <v>1423500</v>
+        <v>908526</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1440,75 +1446,167 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
-        <v>391680</v>
+        <v>36341</v>
       </c>
       <c r="G31" s="18">
-        <v>9792000</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="18">
+        <v>36612</v>
+      </c>
+      <c r="G32" s="18">
+        <v>980657</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="18">
+        <v>39227</v>
+      </c>
+      <c r="G33" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="18">
+        <v>39227</v>
+      </c>
+      <c r="G34" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="E35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="24">
-        <v>59750</v>
-      </c>
-      <c r="G32" s="24">
-        <v>1493755</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
+      <c r="F35" s="18">
+        <v>7268</v>
+      </c>
+      <c r="G35" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="24">
+        <v>22666</v>
+      </c>
+      <c r="G36" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="H41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="C42" s="32"/>
+      <c r="H42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003671388.xlsx
+++ b/Data/EC/NIT-9003671388.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A686AD69-D68C-499B-A72D-5A8C07DCF0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA28D623-647D-40F9-9F00-5A7D9D276891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{55998690-7546-47A8-BA8D-B48C634D77CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DA294DE7-C1CE-4A3A-B517-B88F3B6394BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,42 +65,69 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45646635</t>
+  </si>
+  <si>
+    <t>PAOLA MARGARITA RODRIGUEZ CABALLERO</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1044935054</t>
+  </si>
+  <si>
+    <t>GUSTAVO ANDRES MARTINEZ PADILLA</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1044908417</t>
+  </si>
+  <si>
+    <t>HAWYN JESSID CASTRO SARMIENTO</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1044912807</t>
+  </si>
+  <si>
+    <t>MIRLEYDIS DE JESUS ROMERO HURTADO</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>73353731</t>
   </si>
   <si>
     <t>EULISE MATTAS BARRIOS</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>3828458</t>
+  </si>
+  <si>
+    <t>LEIDER TOMAS LORA TOBIAS</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>2107</t>
   </si>
   <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>3828458</t>
-  </si>
-  <si>
-    <t>LEIDER TOMAS LORA TOBIAS</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
     <t>2109</t>
   </si>
   <si>
-    <t>45646635</t>
-  </si>
-  <si>
-    <t>PAOLA MARGARITA RODRIGUEZ CABALLERO</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
     <t>1007323757</t>
   </si>
   <si>
@@ -108,60 +135,6 @@
   </si>
   <si>
     <t>2204</t>
-  </si>
-  <si>
-    <t>1044921366</t>
-  </si>
-  <si>
-    <t>OSNAIDER JAVIER BUSTOS JARAMILLO</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1044908417</t>
-  </si>
-  <si>
-    <t>HAWYN JESSID CASTRO SARMIENTO</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>1044935054</t>
-  </si>
-  <si>
-    <t>GUSTAVO ANDRES MARTINEZ PADILLA</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>1044912807</t>
-  </si>
-  <si>
-    <t>MIRLEYDIS DE JESUS ROMERO HURTADO</t>
-  </si>
-  <si>
-    <t>2101</t>
   </si>
   <si>
     <t>1051824856</t>
@@ -266,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -279,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -481,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F49CC88-76F5-64E6-0ED3-D0FB3D9095BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B67450-2FE1-B814-D5D7-D5F04B318843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC500D8-DC74-4512-A3B9-63BF7AAEE219}">
-  <dimension ref="B2:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A22C06E-643E-483C-8CF6-C613C911D719}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -957,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1002,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1034,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>597652</v>
+        <v>339606</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1050,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1087,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1110,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>8480</v>
+        <v>7933</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>850000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1124,19 +1097,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>39227</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>980657</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1147,19 +1120,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>30284</v>
+        <v>39227</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>980657</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1170,19 +1143,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>36612</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>980657</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1193,19 +1166,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>7268</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1216,19 +1189,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F21" s="18">
-        <v>8480</v>
+        <v>30284</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1239,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>29073</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1262,19 +1235,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F23" s="18">
-        <v>29073</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1285,19 +1258,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
-        <v>7933</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>850000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1308,19 +1281,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F25" s="18">
-        <v>1333</v>
+        <v>8480</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1331,16 +1304,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>8480</v>
       </c>
       <c r="G26" s="18">
         <v>908526</v>
@@ -1354,13 +1327,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1377,236 +1350,75 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>1333</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G29" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G30" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G31" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="C29" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="18">
-        <v>36612</v>
-      </c>
-      <c r="G32" s="18">
-        <v>980657</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="18">
-        <v>39227</v>
-      </c>
-      <c r="G33" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F29" s="24">
+        <v>22666</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="18">
-        <v>39227</v>
-      </c>
-      <c r="G34" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="B34" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="18">
-        <v>7268</v>
-      </c>
-      <c r="G35" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="23" t="s">
+      <c r="B35" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="24">
-        <v>22666</v>
-      </c>
-      <c r="G36" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="H41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="H42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
